--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_Home_Away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +556,33 @@
       <c r="I2" t="n">
         <v>2.3</v>
       </c>
+      <c r="J2" t="n">
+        <v>344</v>
+      </c>
+      <c r="K2" t="n">
+        <v>207</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>34</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +614,33 @@
       <c r="I3" t="n">
         <v>2.26</v>
       </c>
+      <c r="J3" t="n">
+        <v>270</v>
+      </c>
+      <c r="K3" t="n">
+        <v>209</v>
+      </c>
+      <c r="L3" t="n">
+        <v>48</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -573,6 +672,33 @@
       <c r="I4" t="n">
         <v>2.26</v>
       </c>
+      <c r="J4" t="n">
+        <v>348</v>
+      </c>
+      <c r="K4" t="n">
+        <v>183</v>
+      </c>
+      <c r="L4" t="n">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -604,6 +730,33 @@
       <c r="I5" t="n">
         <v>2.21</v>
       </c>
+      <c r="J5" t="n">
+        <v>255</v>
+      </c>
+      <c r="K5" t="n">
+        <v>208</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>29</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -635,6 +788,33 @@
       <c r="I6" t="n">
         <v>2.17</v>
       </c>
+      <c r="J6" t="n">
+        <v>268</v>
+      </c>
+      <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -666,6 +846,33 @@
       <c r="I7" t="n">
         <v>2.11</v>
       </c>
+      <c r="J7" t="n">
+        <v>307</v>
+      </c>
+      <c r="K7" t="n">
+        <v>155</v>
+      </c>
+      <c r="L7" t="n">
+        <v>44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>29</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -697,6 +904,33 @@
       <c r="I8" t="n">
         <v>2.05</v>
       </c>
+      <c r="J8" t="n">
+        <v>288</v>
+      </c>
+      <c r="K8" t="n">
+        <v>191</v>
+      </c>
+      <c r="L8" t="n">
+        <v>47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -728,6 +962,33 @@
       <c r="I9" t="n">
         <v>1.89</v>
       </c>
+      <c r="J9" t="n">
+        <v>203</v>
+      </c>
+      <c r="K9" t="n">
+        <v>181</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -759,6 +1020,33 @@
       <c r="I10" t="n">
         <v>1.61</v>
       </c>
+      <c r="J10" t="n">
+        <v>352</v>
+      </c>
+      <c r="K10" t="n">
+        <v>168</v>
+      </c>
+      <c r="L10" t="n">
+        <v>39</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -790,6 +1078,33 @@
       <c r="I11" t="n">
         <v>1.54</v>
       </c>
+      <c r="J11" t="n">
+        <v>159</v>
+      </c>
+      <c r="K11" t="n">
+        <v>140</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -821,6 +1136,33 @@
       <c r="I12" t="n">
         <v>1.54</v>
       </c>
+      <c r="J12" t="n">
+        <v>162</v>
+      </c>
+      <c r="K12" t="n">
+        <v>184</v>
+      </c>
+      <c r="L12" t="n">
+        <v>24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -852,6 +1194,33 @@
       <c r="I13" t="n">
         <v>1.47</v>
       </c>
+      <c r="J13" t="n">
+        <v>229</v>
+      </c>
+      <c r="K13" t="n">
+        <v>237</v>
+      </c>
+      <c r="L13" t="n">
+        <v>30</v>
+      </c>
+      <c r="M13" t="n">
+        <v>28</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -883,6 +1252,33 @@
       <c r="I14" t="n">
         <v>1.3</v>
       </c>
+      <c r="J14" t="n">
+        <v>242</v>
+      </c>
+      <c r="K14" t="n">
+        <v>175</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -914,6 +1310,33 @@
       <c r="I15" t="n">
         <v>1.26</v>
       </c>
+      <c r="J15" t="n">
+        <v>295</v>
+      </c>
+      <c r="K15" t="n">
+        <v>211</v>
+      </c>
+      <c r="L15" t="n">
+        <v>32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>38</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -945,6 +1368,33 @@
       <c r="I16" t="n">
         <v>1.24</v>
       </c>
+      <c r="J16" t="n">
+        <v>199</v>
+      </c>
+      <c r="K16" t="n">
+        <v>251</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19</v>
+      </c>
+      <c r="M16" t="n">
+        <v>36</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -976,6 +1426,33 @@
       <c r="I17" t="n">
         <v>1.23</v>
       </c>
+      <c r="J17" t="n">
+        <v>191</v>
+      </c>
+      <c r="K17" t="n">
+        <v>148</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25</v>
+      </c>
+      <c r="M17" t="n">
+        <v>27</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1007,6 +1484,33 @@
       <c r="I18" t="n">
         <v>1.16</v>
       </c>
+      <c r="J18" t="n">
+        <v>230</v>
+      </c>
+      <c r="K18" t="n">
+        <v>280</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>32</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1038,6 +1542,33 @@
       <c r="I19" t="n">
         <v>1.15</v>
       </c>
+      <c r="J19" t="n">
+        <v>257</v>
+      </c>
+      <c r="K19" t="n">
+        <v>275</v>
+      </c>
+      <c r="L19" t="n">
+        <v>28</v>
+      </c>
+      <c r="M19" t="n">
+        <v>37</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1069,6 +1600,33 @@
       <c r="I20" t="n">
         <v>1.1</v>
       </c>
+      <c r="J20" t="n">
+        <v>274</v>
+      </c>
+      <c r="K20" t="n">
+        <v>220</v>
+      </c>
+      <c r="L20" t="n">
+        <v>32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>31</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1099,6 +1657,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.95</v>
+      </c>
+      <c r="J21" t="n">
+        <v>240</v>
+      </c>
+      <c r="K21" t="n">
+        <v>271</v>
+      </c>
+      <c r="L21" t="n">
+        <v>18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>43</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1166,6 +1751,51 @@
           <t>PPG</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1197,6 +1827,33 @@
       <c r="I2" t="n">
         <v>2.53</v>
       </c>
+      <c r="J2" t="n">
+        <v>267</v>
+      </c>
+      <c r="K2" t="n">
+        <v>227</v>
+      </c>
+      <c r="L2" t="n">
+        <v>42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1228,6 +1885,33 @@
       <c r="I3" t="n">
         <v>1.85</v>
       </c>
+      <c r="J3" t="n">
+        <v>266</v>
+      </c>
+      <c r="K3" t="n">
+        <v>282</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1259,6 +1943,33 @@
       <c r="I4" t="n">
         <v>1.68</v>
       </c>
+      <c r="J4" t="n">
+        <v>256</v>
+      </c>
+      <c r="K4" t="n">
+        <v>263</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1290,6 +2001,33 @@
       <c r="I5" t="n">
         <v>1.65</v>
       </c>
+      <c r="J5" t="n">
+        <v>271</v>
+      </c>
+      <c r="K5" t="n">
+        <v>203</v>
+      </c>
+      <c r="L5" t="n">
+        <v>39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1321,6 +2059,33 @@
       <c r="I6" t="n">
         <v>1.55</v>
       </c>
+      <c r="J6" t="n">
+        <v>226</v>
+      </c>
+      <c r="K6" t="n">
+        <v>293</v>
+      </c>
+      <c r="L6" t="n">
+        <v>31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>38</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1352,6 +2117,33 @@
       <c r="I7" t="n">
         <v>1.44</v>
       </c>
+      <c r="J7" t="n">
+        <v>199</v>
+      </c>
+      <c r="K7" t="n">
+        <v>219</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>27</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1383,6 +2175,33 @@
       <c r="I8" t="n">
         <v>1.42</v>
       </c>
+      <c r="J8" t="n">
+        <v>217</v>
+      </c>
+      <c r="K8" t="n">
+        <v>313</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>34</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1414,6 +2233,33 @@
       <c r="I9" t="n">
         <v>1.26</v>
       </c>
+      <c r="J9" t="n">
+        <v>230</v>
+      </c>
+      <c r="K9" t="n">
+        <v>235</v>
+      </c>
+      <c r="L9" t="n">
+        <v>36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1445,6 +2291,33 @@
       <c r="I10" t="n">
         <v>1.22</v>
       </c>
+      <c r="J10" t="n">
+        <v>201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>236</v>
+      </c>
+      <c r="L10" t="n">
+        <v>31</v>
+      </c>
+      <c r="M10" t="n">
+        <v>32</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1476,6 +2349,33 @@
       <c r="I11" t="n">
         <v>1.21</v>
       </c>
+      <c r="J11" t="n">
+        <v>229</v>
+      </c>
+      <c r="K11" t="n">
+        <v>207</v>
+      </c>
+      <c r="L11" t="n">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1507,6 +2407,33 @@
       <c r="I12" t="n">
         <v>1.06</v>
       </c>
+      <c r="J12" t="n">
+        <v>195</v>
+      </c>
+      <c r="K12" t="n">
+        <v>215</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1538,6 +2465,33 @@
       <c r="I13" t="n">
         <v>1</v>
       </c>
+      <c r="J13" t="n">
+        <v>119</v>
+      </c>
+      <c r="K13" t="n">
+        <v>179</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
+      </c>
+      <c r="M13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1569,6 +2523,33 @@
       <c r="I14" t="n">
         <v>0.95</v>
       </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="n">
+        <v>310</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>39</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1600,6 +2581,33 @@
       <c r="I15" t="n">
         <v>0.67</v>
       </c>
+      <c r="J15" t="n">
+        <v>186</v>
+      </c>
+      <c r="K15" t="n">
+        <v>250</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="n">
+        <v>41</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1631,6 +2639,33 @@
       <c r="I16" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="J16" t="n">
+        <v>149</v>
+      </c>
+      <c r="K16" t="n">
+        <v>311</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>46</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1662,6 +2697,33 @@
       <c r="I17" t="n">
         <v>0.52</v>
       </c>
+      <c r="J17" t="n">
+        <v>217</v>
+      </c>
+      <c r="K17" t="n">
+        <v>267</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24</v>
+      </c>
+      <c r="M17" t="n">
+        <v>43</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1693,6 +2755,33 @@
       <c r="I18" t="n">
         <v>0.5</v>
       </c>
+      <c r="J18" t="n">
+        <v>241</v>
+      </c>
+      <c r="K18" t="n">
+        <v>282</v>
+      </c>
+      <c r="L18" t="n">
+        <v>28</v>
+      </c>
+      <c r="M18" t="n">
+        <v>46</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1724,6 +2813,33 @@
       <c r="I19" t="n">
         <v>0.47</v>
       </c>
+      <c r="J19" t="n">
+        <v>205</v>
+      </c>
+      <c r="K19" t="n">
+        <v>286</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24</v>
+      </c>
+      <c r="M19" t="n">
+        <v>45</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1755,6 +2871,33 @@
       <c r="I20" t="n">
         <v>0.31</v>
       </c>
+      <c r="J20" t="n">
+        <v>126</v>
+      </c>
+      <c r="K20" t="n">
+        <v>195</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>36</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1785,6 +2928,33 @@
       </c>
       <c r="I21" t="n">
         <v>0.23</v>
+      </c>
+      <c r="J21" t="n">
+        <v>137</v>
+      </c>
+      <c r="K21" t="n">
+        <v>216</v>
+      </c>
+      <c r="L21" t="n">
+        <v>24</v>
+      </c>
+      <c r="M21" t="n">
+        <v>36</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/SerieA_Home_Away.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/SerieA_Home_Away.xlsx
@@ -529,59 +529,59 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>44.12</v>
+        <v>51.567</v>
       </c>
       <c r="D2" t="n">
-        <v>23.782</v>
+        <v>17.237</v>
       </c>
       <c r="E2" t="n">
         <v>46</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
         <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="O2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -645,44 +645,44 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>49.738</v>
+        <v>28.375</v>
       </c>
       <c r="D4" t="n">
-        <v>16.03</v>
+        <v>21.452</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="K4" t="n">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N4" t="n">
         <v>0.37</v>
@@ -691,129 +691,129 @@
         <v>0.16</v>
       </c>
       <c r="P4" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="R4" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>28.375</v>
+        <v>30.997</v>
       </c>
       <c r="D5" t="n">
-        <v>21.452</v>
+        <v>11.917</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="J5" t="n">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K5" t="n">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M5" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="O5" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="P5" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="R5" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>30.997</v>
+        <v>41.801</v>
       </c>
       <c r="D6" t="n">
-        <v>11.917</v>
+        <v>24.041</v>
       </c>
       <c r="E6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="n">
         <v>25</v>
       </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I6" t="n">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L6" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="P6" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="R6" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>34.828</v>
+        <v>33.526</v>
       </c>
       <c r="D7" t="n">
-        <v>19.678</v>
+        <v>19.322</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="n">
         <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="J7" t="n">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K7" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L7" t="n">
         <v>44</v>
@@ -859,19 +859,19 @@
         <v>29</v>
       </c>
       <c r="N7" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="P7" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
@@ -942,52 +942,52 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>24.381</v>
+        <v>25.245</v>
       </c>
       <c r="D9" t="n">
-        <v>16.892</v>
+        <v>16.996</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="J9" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K9" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" t="n">
         <v>0.39</v>
       </c>
       <c r="O9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.22</v>
       </c>
     </row>
     <row r="10">
@@ -997,55 +997,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>33.968</v>
+        <v>36.229</v>
       </c>
       <c r="D10" t="n">
-        <v>19.564</v>
+        <v>21.6</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="J10" t="n">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="K10" t="n">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="O10" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="P10" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">
@@ -1113,55 +1113,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>18.49</v>
+        <v>20.029</v>
       </c>
       <c r="D12" t="n">
-        <v>18.59</v>
+        <v>19.885</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="K12" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L12" t="n">
+        <v>26</v>
+      </c>
+      <c r="M12" t="n">
         <v>24</v>
       </c>
-      <c r="M12" t="n">
-        <v>22</v>
-      </c>
       <c r="N12" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="O12" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="R12" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -1174,37 +1174,37 @@
         <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>24.887</v>
+        <v>24.778</v>
       </c>
       <c r="D13" t="n">
-        <v>26.436</v>
+        <v>27.609</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K13" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L13" t="n">
         <v>30</v>
       </c>
       <c r="M13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N13" t="n">
         <v>0.47</v>
@@ -1232,37 +1232,37 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>25.644</v>
+        <v>24.773</v>
       </c>
       <c r="D14" t="n">
-        <v>15.752</v>
+        <v>13.778</v>
       </c>
       <c r="E14" t="n">
         <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K14" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
         <v>0.35</v>
@@ -1271,126 +1271,126 @@
         <v>0.4</v>
       </c>
       <c r="P14" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="Q14" t="n">
         <v>0.35</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>25.303</v>
+        <v>17.223</v>
       </c>
       <c r="D15" t="n">
-        <v>27.58</v>
+        <v>27.505</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="H15" t="n">
         <v>24</v>
       </c>
       <c r="I15" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="J15" t="n">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="K15" t="n">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="O15" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="P15" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="R15" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>16.718</v>
+        <v>25.303</v>
       </c>
       <c r="D16" t="n">
-        <v>27.145</v>
+        <v>27.58</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="J16" t="n">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="K16" t="n">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="L16" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="O16" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="P16" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="R16" t="n">
         <v>0.53</v>
@@ -1461,55 +1461,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>24.088</v>
+        <v>25.604</v>
       </c>
       <c r="D18" t="n">
-        <v>26.825</v>
+        <v>27.264</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H18" t="n">
         <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="J18" t="n">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="K18" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M18" t="n">
         <v>32</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O18" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="P18" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="R18" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19">
@@ -1519,55 +1519,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>26.241</v>
+        <v>24.165</v>
       </c>
       <c r="D19" t="n">
-        <v>29.544</v>
+        <v>28.775</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="K19" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="O19" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P19" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="20">
@@ -1580,37 +1580,37 @@
         <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>27.204</v>
+        <v>26.896</v>
       </c>
       <c r="D20" t="n">
-        <v>25.161</v>
+        <v>24.167</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>26</v>
       </c>
       <c r="G20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
-        <v>22</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J20" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K20" t="n">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
         <v>0.55</v>
@@ -1622,10 +1622,10 @@
         <v>0.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1635,34 +1635,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>18.286</v>
+        <v>17.572</v>
       </c>
       <c r="D21" t="n">
-        <v>34.224</v>
+        <v>33.86</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="n">
         <v>-11</v>
       </c>
       <c r="H21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
         <v>0.95</v>
       </c>
       <c r="J21" t="n">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K21" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L21" t="n">
         <v>18</v>
@@ -1671,19 +1671,19 @@
         <v>43</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -1858,117 +1858,117 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>34.938</v>
+        <v>30.852</v>
       </c>
       <c r="D3" t="n">
-        <v>22.856</v>
+        <v>25.816</v>
       </c>
       <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
         <v>28</v>
       </c>
-      <c r="F3" t="n">
-        <v>19</v>
-      </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J3" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M3" t="n">
         <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
       <c r="O3" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>31.811</v>
+        <v>36.513</v>
       </c>
       <c r="D4" t="n">
-        <v>26.508</v>
+        <v>24.042</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P4" t="n">
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -1978,55 +1978,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>30.717</v>
+        <v>28.045</v>
       </c>
       <c r="D5" t="n">
-        <v>19.621</v>
+        <v>18.188</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="J5" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="K5" t="n">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="O5" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="R5" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -2213,37 +2213,37 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>24.115</v>
+        <v>25.335</v>
       </c>
       <c r="D9" t="n">
-        <v>22.34</v>
+        <v>22.86</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="J9" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K9" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N9" t="n">
         <v>0.79</v>
@@ -2322,233 +2322,233 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>22.742</v>
+        <v>24.527</v>
       </c>
       <c r="D11" t="n">
-        <v>33.542</v>
+        <v>23.123</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>-1</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J11" t="n">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="K11" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="L11" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="O11" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="P11" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
       <c r="R11" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>23.401</v>
+        <v>23.44</v>
       </c>
       <c r="D12" t="n">
-        <v>22.842</v>
+        <v>34.104</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
+        <v>26</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19</v>
-      </c>
       <c r="I12" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="J12" t="n">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="K12" t="n">
         <v>215</v>
       </c>
       <c r="L12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M12" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="P12" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>11.004</v>
+        <v>17.799</v>
       </c>
       <c r="D13" t="n">
-        <v>15.33</v>
+        <v>27.544</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N13" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="P13" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="R13" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>19.124</v>
+        <v>12.672</v>
       </c>
       <c r="D14" t="n">
-        <v>31.097</v>
+        <v>18.234</v>
       </c>
       <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
         <v>17</v>
       </c>
-      <c r="F14" t="n">
-        <v>29</v>
-      </c>
       <c r="G14" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="J14" t="n">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="K14" t="n">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M14" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N14" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="O14" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="P14" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="R14" t="n">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15">
@@ -2616,55 +2616,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>11.299</v>
+        <v>12.139</v>
       </c>
       <c r="D16" t="n">
-        <v>38.368</v>
+        <v>40.351</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
         <v>-20</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="J16" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K16" t="n">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="O16" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="P16" t="n">
         <v>0.11</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="17">
@@ -2674,229 +2674,229 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>19.501</v>
+        <v>18.231</v>
       </c>
       <c r="D17" t="n">
-        <v>32.501</v>
+        <v>30.866</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="H17" t="n">
         <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="J17" t="n">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K17" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N17" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="O17" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="P17" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>24.908</v>
+        <v>19.752</v>
       </c>
       <c r="D18" t="n">
-        <v>32.418</v>
+        <v>35.129</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="J18" t="n">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="K18" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N18" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="O18" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="R18" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>18.813</v>
+        <v>11.928</v>
       </c>
       <c r="D19" t="n">
-        <v>34.892</v>
+        <v>29.466</v>
       </c>
       <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>134</v>
+      </c>
+      <c r="K19" t="n">
+        <v>211</v>
+      </c>
+      <c r="L19" t="n">
         <v>13</v>
       </c>
-      <c r="F19" t="n">
-        <v>30</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-17</v>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J19" t="n">
-        <v>205</v>
-      </c>
-      <c r="K19" t="n">
-        <v>286</v>
-      </c>
-      <c r="L19" t="n">
-        <v>24</v>
-      </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N19" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="R19" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>11.489</v>
+        <v>25.268</v>
       </c>
       <c r="D20" t="n">
-        <v>27.95</v>
+        <v>32.923</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="J20" t="n">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="K20" t="n">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="L20" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N20" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="O20" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="21">
